--- a/Design/Excel/GameHot/Datas/CardPile.xlsx
+++ b/Design/Excel/GameHot/Datas/CardPile.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowWidth="21000" windowHeight="17200"/>
   </bookViews>
   <sheets>
     <sheet name="武器表" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="25">
   <si>
     <t>##var</t>
   </si>
@@ -35,24 +35,33 @@
     <t>Id</t>
   </si>
   <si>
-    <t>Skill</t>
-  </si>
-  <si>
     <t>CardPile</t>
   </si>
   <si>
+    <t>CardConfig</t>
+  </si>
+  <si>
+    <t>Num</t>
+  </si>
+  <si>
+    <t>CardAttr</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
-    <t>ESkill</t>
-  </si>
-  <si>
     <t>ECardPile</t>
   </si>
   <si>
+    <t>int#ref=DTCardConfig</t>
+  </si>
+  <si>
+    <t>ECardAttr</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
@@ -65,28 +74,34 @@
     <t>编号</t>
   </si>
   <si>
-    <t>卡牌技能</t>
-  </si>
-  <si>
     <t>所属牌堆</t>
   </si>
   <si>
-    <t>斩</t>
+    <t>卡牌配置</t>
+  </si>
+  <si>
+    <t>点数</t>
+  </si>
+  <si>
+    <t>属性</t>
   </si>
   <si>
     <t>基础牌堆</t>
   </si>
   <si>
-    <t>扫</t>
-  </si>
-  <si>
-    <t>刺</t>
-  </si>
-  <si>
-    <t>打</t>
-  </si>
-  <si>
-    <t>闪</t>
+    <t>金</t>
+  </si>
+  <si>
+    <t>木</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>土</t>
   </si>
 </sst>
 </file>
@@ -1068,22 +1083,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18:I19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.1818181818182" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.45454545454545" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.72727272727273" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.7272727272727" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="8.45454545454546" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.7272727272727" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.2727272727273" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.72727272727273" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.9090909090909" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1096,601 +1113,925 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:4">
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="2:4">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="2:6">
       <c r="B5" s="2">
         <v>1001</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6" s="2">
         <v>1002</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
       <c r="B7" s="2">
         <v>1003</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
       <c r="B8" s="2">
         <v>1004</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
       <c r="B9" s="2">
         <v>1005</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
       <c r="B10" s="2">
         <v>1006</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
       <c r="B11" s="2">
         <v>1007</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>7</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
       <c r="B12" s="2">
         <v>1008</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
       <c r="B13" s="2">
         <v>1009</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
       <c r="B14" s="2">
         <v>1010</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
       <c r="B15" s="2">
         <v>1011</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="2:8">
+      <c r="C15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="2:7">
       <c r="B16" s="2">
         <v>1012</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="2:8">
+      <c r="C16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17" s="2">
         <v>1013</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="2:8">
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="2:7">
       <c r="B18" s="2">
         <v>1014</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="2:4">
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19" s="2">
         <v>1015</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
+      <c r="C19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>5</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
       <c r="B20" s="2">
         <v>1016</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>6</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
       <c r="B21" s="2">
         <v>1017</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
+      <c r="C21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>7</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
       <c r="B22" s="2">
         <v>1018</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
+      <c r="C22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>8</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
       <c r="B23" s="2">
         <v>1019</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
+      <c r="C23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>9</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
       <c r="B24" s="2">
         <v>1020</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
+      <c r="C24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>10</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
       <c r="B25" s="2">
         <v>1021</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
+      <c r="C25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
       <c r="B26" s="2">
         <v>1022</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
+      <c r="C26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
       <c r="B27" s="2">
         <v>1023</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
+      <c r="C27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>3</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
       <c r="B28" s="2">
         <v>1024</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
+      <c r="C28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>4</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
       <c r="B29" s="2">
         <v>1025</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
+      <c r="C29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>5</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
       <c r="B30" s="2">
         <v>1026</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
+      <c r="C30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>6</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
       <c r="B31" s="2">
         <v>1027</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
+      <c r="C31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>7</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
       <c r="B32" s="2">
         <v>1028</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
+      <c r="C32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>8</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
       <c r="B33" s="2">
         <v>1029</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
+      <c r="C33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>9</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
       <c r="B34" s="2">
         <v>1030</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
+      <c r="C34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>10</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
       <c r="B35" s="2">
         <v>1031</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
+      <c r="C35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
       <c r="B36" s="2">
         <v>1032</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
+      <c r="C36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
       <c r="B37" s="2">
         <v>1033</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
+      <c r="C37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2">
+        <v>3</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
       <c r="B38" s="2">
         <v>1034</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
+      <c r="C38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2</v>
+      </c>
+      <c r="E38" s="2">
+        <v>4</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
       <c r="B39" s="2">
         <v>1035</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
+      <c r="C39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="2">
+        <v>2</v>
+      </c>
+      <c r="E39" s="2">
+        <v>5</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
       <c r="B40" s="2">
         <v>1036</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
+      <c r="C40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2</v>
+      </c>
+      <c r="E40" s="2">
+        <v>6</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
       <c r="B41" s="2">
         <v>1037</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
+      <c r="C41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2</v>
+      </c>
+      <c r="E41" s="2">
+        <v>7</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
       <c r="B42" s="2">
         <v>1038</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
+      <c r="C42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2</v>
+      </c>
+      <c r="E42" s="2">
+        <v>8</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
       <c r="B43" s="2">
         <v>1039</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
+      <c r="C43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2</v>
+      </c>
+      <c r="E43" s="2">
+        <v>9</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
       <c r="B44" s="2">
         <v>1040</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
+      <c r="C44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2</v>
+      </c>
+      <c r="E44" s="2">
+        <v>10</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
       <c r="B45" s="2">
         <v>1041</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
+      <c r="C45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
       <c r="B46" s="2">
         <v>1042</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
+      <c r="C46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="2">
+        <v>2</v>
+      </c>
+      <c r="E46" s="2">
+        <v>2</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
       <c r="B47" s="2">
         <v>1043</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4">
+      <c r="C47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2</v>
+      </c>
+      <c r="E47" s="2">
+        <v>3</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
       <c r="B48" s="2">
         <v>1044</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
+      <c r="C48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="2">
+        <v>2</v>
+      </c>
+      <c r="E48" s="2">
+        <v>4</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
       <c r="B49" s="2">
         <v>1045</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
+      <c r="C49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="2">
+        <v>2</v>
+      </c>
+      <c r="E49" s="2">
+        <v>5</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
       <c r="B50" s="2">
         <v>1046</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
+      <c r="C50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="2">
+        <v>2</v>
+      </c>
+      <c r="E50" s="2">
+        <v>6</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
       <c r="B51" s="2">
         <v>1047</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
+      <c r="C51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="2">
+        <v>2</v>
+      </c>
+      <c r="E51" s="2">
+        <v>7</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
       <c r="B52" s="2">
         <v>1048</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4">
+      <c r="C52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="2">
+        <v>2</v>
+      </c>
+      <c r="E52" s="2">
+        <v>8</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
       <c r="B53" s="2">
         <v>1049</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4">
+      <c r="C53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="2">
+        <v>2</v>
+      </c>
+      <c r="E53" s="2">
+        <v>9</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
       <c r="B54" s="2">
         <v>1050</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>15</v>
+      <c r="C54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="2">
+        <v>2</v>
+      </c>
+      <c r="E54" s="2">
+        <v>10</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
